--- a/Ear Surgery Instruments/Wrist Tool Assembly/Clinical Tool/Components info and quotes/Clinical Tool BOM.xlsx
+++ b/Ear Surgery Instruments/Wrist Tool Assembly/Clinical Tool/Components info and quotes/Clinical Tool BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="181">
   <si>
     <t>Description</t>
   </si>
@@ -520,13 +520,7 @@
     <t>acquired</t>
   </si>
   <si>
-    <t>quote requested from Protolabs</t>
-  </si>
-  <si>
     <t xml:space="preserve">luer plus suction tubing </t>
-  </si>
-  <si>
-    <t>SickKids OR - IV tubing?</t>
   </si>
   <si>
     <t>4-40</t>
@@ -568,13 +562,22 @@
     <t>sent request for quote to Pulse (Bob Lamson)</t>
   </si>
   <si>
-    <t>waiting for quote</t>
-  </si>
-  <si>
     <t>ordered through myfinance - waiting for approval and the order</t>
   </si>
   <si>
     <t>ordered through mcmaster carr</t>
+  </si>
+  <si>
+    <t>order from Protolabs</t>
+  </si>
+  <si>
+    <t>In the OR</t>
+  </si>
+  <si>
+    <t>SickKids OR - MED-RX, Standard bore tubing with slide clamp, M/F L.L., REF 10-1044 (see picture below)</t>
+  </si>
+  <si>
+    <t>ordered through Pulse</t>
   </si>
 </sst>
 </file>
@@ -857,6 +860,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>928918</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>35001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411168</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>22001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IMG_8405.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3147751" y="13109084"/>
+          <a:ext cx="2400000" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1112,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1630,8 +1676,8 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1698,7 +1744,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>134</v>
@@ -1713,7 +1759,7 @@
         <v>135</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="31.5">
@@ -1721,13 +1767,13 @@
         <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="47.25" hidden="1">
@@ -1790,10 +1836,10 @@
         <v>151</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="63">
@@ -1804,7 +1850,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>154</v>
@@ -1856,7 +1902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" ht="31.5">
+    <row r="11" spans="1:12" s="20" customFormat="1">
       <c r="B11" s="20" t="s">
         <v>67</v>
       </c>
@@ -1876,7 +1922,7 @@
         <v>124</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="20" customFormat="1" ht="31.5">
@@ -1899,7 +1945,7 @@
         <v>126</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="19" customFormat="1" ht="110.25">
@@ -1920,6 +1966,9 @@
       </c>
       <c r="J13" s="19" t="s">
         <v>157</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="26" customFormat="1" ht="31.5">
@@ -1939,10 +1988,10 @@
         <v>142</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="26" customFormat="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="B15" s="15" t="s">
         <v>143</v>
       </c>
@@ -1956,6 +2005,9 @@
       <c r="J15" s="15" t="s">
         <v>144</v>
       </c>
+      <c r="L15" s="15" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="25" customFormat="1" ht="31.5" hidden="1">
       <c r="B16" s="25" t="s">
@@ -1976,8 +2028,11 @@
       <c r="J16" s="25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="15" customFormat="1" ht="31.5">
+      <c r="L16" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="15" customFormat="1" ht="31.5">
       <c r="B17" s="15" t="s">
         <v>149</v>
       </c>
@@ -1985,13 +2040,13 @@
         <v>118</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>112</v>
@@ -1999,8 +2054,11 @@
       <c r="J17" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="31.5">
+      <c r="L17" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31.5">
       <c r="B18" s="1" t="s">
         <v>152</v>
       </c>
@@ -2008,7 +2066,7 @@
         <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>64</v>
@@ -2020,18 +2078,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="15" customFormat="1" ht="31.5">
-      <c r="B19" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="15" customFormat="1" ht="31.5" hidden="1">
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="78.75">
+      <c r="B19" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="15" customFormat="1" ht="31.5" hidden="1">
       <c r="B20" s="15" t="s">
         <v>74</v>
       </c>
@@ -2048,7 +2109,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="25" customFormat="1" ht="63" hidden="1">
+    <row r="21" spans="1:12" s="25" customFormat="1" ht="63" hidden="1">
       <c r="B21" s="25" t="s">
         <v>77</v>
       </c>
@@ -2068,7 +2129,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" hidden="1">
+    <row r="22" spans="1:12" ht="47.25" hidden="1">
       <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
@@ -2085,15 +2146,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="63">
+    <row r="23" spans="1:12" ht="63">
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>154</v>
@@ -2102,12 +2163,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="A25" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31.5">
+    <row r="26" spans="1:12" ht="31.5">
       <c r="A26" s="16" t="s">
         <v>103</v>
       </c>
@@ -2119,42 +2180,42 @@
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12">
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -2167,5 +2228,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>